--- a/biology/Médecine/Cétonémie/Cétonémie.xlsx
+++ b/biology/Médecine/Cétonémie/Cétonémie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9ton%C3%A9mie</t>
+          <t>Cétonémie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La cétonémie mesure le taux de corps cétoniques dans le sang, généralement pour investiguer des troubles métaboliques : diabète sucré[1], alcoolisme, trouble de la malabsorption du glucose, etc.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cétonémie mesure le taux de corps cétoniques dans le sang, généralement pour investiguer des troubles métaboliques : diabète sucré, alcoolisme, trouble de la malabsorption du glucose, etc.
 Des résultats anormalement élevés peuvent être considérés comme une cétose qui alimentera le diagnostic clinique. Chez l'humain, le principal corps cétonique en cause dans une acidocétose est le 3-bêta-hydroxybutyrate.
-Néanmoins une diète cétogène peut dans certains cas être indiquée, notamment pour diminuer les crises d'épilepsies résistantes aux médications classiques[2].
+Néanmoins une diète cétogène peut dans certains cas être indiquée, notamment pour diminuer les crises d'épilepsies résistantes aux médications classiques.
 </t>
         </is>
       </c>
